--- a/Gastos M Demo/Gastos Médicos.xlsx
+++ b/Gastos M Demo/Gastos Médicos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\OneDrive\Documents\My Hospital Expenses\Nariz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RRE\PowerBI\Gastos M Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{C8201BB6-A7E7-44A1-A62E-5330311FFA28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F384EE7B-932D-4A4D-B902-B6946B4C8E36}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543980D6-3FBD-426E-A7C3-F898EC4D6F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{DC3B3ACB-45B8-4852-B02E-19DA2E23666C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{DC3B3ACB-45B8-4852-B02E-19DA2E23666C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos Médicos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>FACTURA</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>A-257</t>
+  </si>
+  <si>
+    <t>AUTORIZA</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
   </si>
 </sst>
 </file>
@@ -205,13 +220,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -527,41 +548,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DFFB32-ED8C-455B-9C4E-0BE0C99402BC}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -580,8 +605,11 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -600,8 +628,11 @@
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -620,8 +651,11 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -640,8 +674,11 @@
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -660,8 +697,11 @@
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -680,8 +720,11 @@
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -700,8 +743,11 @@
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -720,8 +766,11 @@
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -740,8 +789,11 @@
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -760,8 +812,11 @@
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -780,8 +835,11 @@
       <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -800,9 +858,14 @@
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="G13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
@@ -818,12 +881,15 @@
       <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="5"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
